--- a/500all/speech_level/speeches_CHRG-114hhrg95643.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95643.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,51 +52,33 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lowenthal. All right. Thank you, Mr. Chairman, and thank you, witnesses, for being here.    For years, the world's top economists have been saying that in not accounting for climate change, we have created a market failure. Let's be clear: a market failure. The market currently fails to account for the costs associated with greenhouse gas emissions and climate change.    Polluting industries are pumping out greenhouse gases free of charge, but others, such as taxpayers, property owners, and also healthcare systems, are and will be paying for the resulting damage to property and human health, to name just two impacted sectors.    To help correct for this market failure, the social cost of carbon, or what I will call SCC, puts the effects of these greenhouse gas emissions into a monetary context so that the agencies and taxpayers can understand the impacts of their actions on infrastructure, on health, and food security.    The SCC, or the social cost of carbon, is derived by estimating the cost of the damage to society of emitting a single metric ton of carbon dioxide. But because most of the damages attributed to the marginal ton occur not in the year that they are emitted, but many years into the future, we must find a way to consider not only this generation's welfare, but the welfare of future generations who are going to be paying for the actions we take, and are also going to be paying if we fail to take actions today.    For this reason, and to use a single dollar figure to compare different regulatory alternatives with different emission time profiles, the scientific literature supports developing discount rates that consider the long term and intergenerational impacts of climate change.    In other words, with each ton of carbon emitted, we are deciding now between the well-being of current and the well-being of future generations, and the social cost of carbon provides us with the tool to make more informed decisions on one of the greatest ethical questions of our time.    The value derived from calculating the social cost of carbon is then incorporated into an agency's broader cost-benefit analysis, which includes many other costs and many of the other benefits of a given rulemaking.    Republican and Democratic presidents alike have required cost-benefit analyses to be performed on proposed regulations, and as new, modern methods have developed, successive administrations have updated their guidance to agencies on how to perform these analyses. In fact, the Majority has repeatedly supported legislation that would add cost-benefit requirements to agencies' rulemaking.    However, it appears now that we are dealing with climate change cost, the Majority may be having a change of heart. Instead of having a reasonable debate on the proper costs to assign climate change damages, the Majority appears to be attacking the entire premise of the existence of climate change damages.    I say that because, unfortunately, the Majority's witnesses here today appear not to support much of any action on climate change. One witness works for a lobby shop that represents the oil and gas industry; the other two Majority witnesses have ties to the climate change counter-movement, or CCCM, also known as the Climate Denier Campaign. Indeed, one witness has said in the past that he does not even believe we have a climate change problem.    To make matters more difficult, the Majority did not provide the White House enough time to secure someone who could actually talk to the committee about the SCC and the interagency process to develop it, how it was developed.    So it appears that we cannot have a credible discussion about social cost of carbon, which we were told was the focus of this hearing. This is too bad, because I know there are in this room Republican members of this committee who do want to do something about climate change, but sadly this hearing does not appear to be a productive step forward.    Thank you, and I yield back.</t>
   </si>
   <si>
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman.    The social cost of carbon estimates that will come out of this Administration's attempt to monetize costs and benefits of carbon emissions are going to be incorporated into project analyses under NEPA.    As this committee explored in a hearing in May, this global warming analysis will be applied to projects in nearly every sector of our economy, including agriculture, energy, infrastructure, and manufacturing, just to name a few. Projects and permits may hinge on what the Administration deems to be their global warming cost or benefit.    The cost-benefit analysis of proposed regulations will be impacted to the tune of billions of dollars under the social cost of carbon. Yet Administration officials concocted the social cost of carbon in a process lacking transparency, lacking peer review, and, most offensively, lacking public input.    Today we will shine some light on the questionable assumptions that underlie the social cost of carbon, which seeks to predict projects' global warming costs 285 years into the future. In pursuing this brazen endeavor, the Administration has handpicked the science and even the Federal scientific guidance it chooses.    The social cost of carbon risks American jobs and our Nation's prosperity all in the name of questionable statistical models. The Federal decisionmaking process should be held to a higher standard of integrity. The American people, who will ultimately bear the cost of this policy, deserve better from their government.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t>412312</t>
   </si>
   <si>
-    <t>Gregorio Kilili Camacho Sablan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sablan. Thank you very much, Mr. Chairman, and I would like to welcome today's panel to this hearing.    Flooding is one of the main threats that climate change poses to coastal states, including the Northern Mariana Islands, the district I represent. Flooding could threaten our freshwater lens that protects the drinking water on our islands. Flooding, which affects subsistence farming, has impacted taro patches because taro cannot be planted in saltwater. The archipelago's coral reefs, wetlands, and shoreline vegetation help protect our coast. Flooding and ocean acidification puts them all at risk.    Tourism is a major part of our economy. People come from all over the world to bask on our shores and see our coral reefs. Garapan is one of the most popular tourism areas. It is also one of, if not the most low-lying and vulnerable area on the island of Saipan. American Memorial Park on Saipan is at risk of increasing sea level rise.    If flooding and ocean acidification undermine such a prominent part of our economy, we do not have many other economic options in our small islands. Climate change is very real to my constituents and my son and me, and it is happening now.    And to those who deny the science of climate change, including those in today's panel, then please come join me and I will bring you to a place that has the physical evidence of rising seas.    The traditional cost-benefit analysis that accompanies many Federal rules necessarily leaves out some of the most important factors. The cost of property damage from floods, for example, is left out. The enormous economic impact of loss of agricultural productivity is also left out. The loss of our wetlands, our coral, and our beaches, which are so central to our economy and our livelihoods, are left out.    The social cost of carbon tries to correct that. It incorporates many of the very real costs that we, all levels of government, and other communities are already paying to deal with the effects of climate change.    In the case of climate change, so many of these things that are historically omitted from a cost-benefit analysis are the things that affect those at the margins first and worst. When agricultural productivity goes down and food prices go up, low-income communities are hit the hardest. When jobs are lost from tourism, the lowest income folks often have the fewest options. When drinking water becomes more rare and more expensive, those without means suffer the most.    And if these important impacts are omitted from cost-benefit analyses, they do not exist in the eyes of decisionmakers. Bringing these impacts into the process paints a more complete picture for decisionmakers of the impacts of their decisions. It makes these impacts visible, and failing to do so leaves those at the margins behind.    I want to thank Dr. Patrick Michaels for his candor on this subject. In a talk in June on the social cost of carbon at the Heritage Foundation, he said, and I quote, ``People adapt to their environment as long as they have enough money to do so.''    I don't know whether Dr. Michaels thinks it is acceptable to rely on adaptation as a primary way of dealing with climate change, and in so doing, leave behind the millions that do not have enough money to adapt. I certainly do not.    We need the social cost of carbon to reflect the full range of the true cost of climate change, the costs that are being borne already. Incorporating the social cost of carbon into decisionmaking increases the chances of an effective policy response. It is a small but necessary act of justice. That is true not just for my community, but for communities through the United States.    Mr. Chairman, I yield back the balance of my time.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Michaels</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Michaels. Mr. Chairman and standing Ranking Member Lowenthal, members of the committee, thank you for inviting my testimony on scientific problems relating to the current calculation of the social cost of carbon, hereafter SCC.    I am Patrick J. Michaels, Director of the Center for the Study of Science of The Cato Institute. Prior to that I was research professor of environmental sciences at the University of Virginia for 30 years.    The Administration's calculation of the SCC is in contravention of a large and growing body of scientific literature demonstrating that the sensitivity of temperature to human emissions of carbon dioxide is less than was previously thought and, more importantly, that the probability of high values is much lower than previously indicated.    Sensitivity is the amount of net warming one gets for doubling atmospheric carbon dioxide. It also roughly approximates the forecast for total surface warming from carbon dioxide by the end of the 21st century.    I would like the next image please.    [Slide.]    The Administration uses a probability distribution developed by Roe and Baker for warming that runs from roughly 1.7 degrees to about 7.1 degrees, basically the length of this chart. Its mean sensitivity is 3 degrees, and again, the 95 percent confidence limits are 1.72 to 7.14.    Beginning in 2011, with the exception of two papers published a decade earlier by myself and MIT's Richard Lindzen, a growing body of scientific literature has yielded 21 new estimates of the sensitivity generated by 46 researchers from 12 countries, and that is what is shown there. The mean sensitivity is 2.0 +C. The 5 to 95 percent confidence limits are 1.1 to 3.5 +C. Those who deny this are denying science.    Our illustration graphically shows the major differences that have evolved between what the Administration uses and the new scientific reality. The higher probabilities in the Roe and Baker determination resulted mainly because of the extremely wide range of estimates for the cooling effects of sulfate aerosols.    Recently these have been dramatically narrowed by researchers Nick Lewis and by Judith Curry of Georgia Tech, resulting in a vanishingly small probability of major warming.    That would be the next image.    [Slide.]    You can see there, the mean warming predicted for doubling CO&lt;INF&gt;2&lt;/INF&gt; sensitivity is around 1.3 and the high end tails are very, very vanishingly small.    As my colleague, Kevin Dayaratna will show, the newer, more constrained science results in a dramatic lowering of the SCC. As an example of the dramatic changes that are evolving in science, an important recent paper by Otto, et al., reports a mean sensitivity of 2.0 +C with a 5 to 95 percent confidence range of 1.2 to 3.9 +C.    This is noteworthy because there are 15 co-authors on this paper who were lead authors of chapters in the latest report of the Intergovernmental Panel on Climate Change. This is truly a consensus statement that the previously published sensitivity was far too large. Those who deny this are denying science.    Here is another major scientific shortcoming in the Administration's calculation of the SCC. Thousands of scientific papers written around the world demonstrate the direct fertilization effect of atmospheric carbon dioxide on agricultural output.    A recent literature review by Dr. Craig Idso shows it results in a 10 to 15 percent increase in the overall yield of major food crops contributing to an increase in global agricultural output of $3.2 trillion since 1961. Properly including this well-documented information, as will be demonstrated by Dayaratna, can result in a negative social cost of carbon or a net external benefit from the combustion of carbon dioxide.    [Slide.]    In closing, I implore the committee to require the Administration--next image--to back up their calculation of the SCC with real reproducible science. This graphic was shown to this committee on May 13 by Dr. John Christy. I need say nothing more about it. It is a stark representation of the failure of the climate models that form the basis for the Administration's calculation of the social cost of carbon. Those who deny this are denying science.    I thank you for inviting my testimony, and I note that an expanded version has been submitted to the committee as supplemental material.</t>
   </si>
   <si>
-    <t>Segal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Segal. Chairman Bishop, Mr. Lowenthal, members of the committee, based on 25 years of practice of law and public policy in the environmental field, it is my pleasure to offer some thoughts on the Administration's use of the social cost of carbon.    In short, the use of social cost is currently not an appropriate basis for setting policy and misleads the public regarding the true cost of government action.    First, social cost is used to make expensive rules appear cost beneficial, when they are not. The methodology was used to make vehicle efficiency standards that had a net cost of $50 billion appear to have a benefit of $100 billion, and the EPA's power plant rules relied on social cost for as much as 65 percent of their alleged net benefits.    As the President's climate action plan comes further into focus, more and more regulations claiming to reduce carbon emissions will use social cost to appear cost beneficial when the truth might be otherwise. It has already been cited in 114 proposed or final rules across six Federal agencies.    When actual environmental benefits fail to satisfy a skeptical audience, social costs should not be used as some type of Hamburger Helper to make the dish look more inviting than it really is.    Some might say, ``Well, what is the harm in overestimating benefits? '' The Supreme Court reminded us earlier this month that too much wasteful expenditure devoted to one problem may well mean considerably fewer resources available to deal effectively with other perhaps more serious problems. Failing to recognize this reasoned the Court was irrational and inappropriate.    Even EPA's Air Administrator recently told Congress when asked if a rule can actually claim a particularized benefit related to reducing climate change. She said, ``You can't predict the climate that way,'' and of course, she is right. Stopping a particular project or adopting a particular rule does not yield a benefit down to the ton. EPA does not think so, but this is precisely what the social cost purports to do.    As a matter of law, social cost faces numerous legal, procedural, and other shortcomings associated with its development, derivation, and application--enough problems to clearly warrant the immediate discontinuation of the use of social cost values in the regulatory context.    Also, the potential use of social cost by the CEQ as a basis for agencies to reject or condition project approval is troubling. Seemingly it is inconsistent with Supreme Court precedent that requires NEPA, National Environmental Policy Act, conditions to have a real causal relationship to the actual action under review.    One basis for this conclusion is the uncertainty that swirls around the models used to determine social cost. This uncertainty falls short of the complete analytic defense and rational connection between factual inputs, modeling assumptions, and conclusions that have long been required by Federal courts as part of administrative law.    MIT Professor Robert Pindyck said, by contrast, the models the Administration has used have, ``crucial flaws that make them close to useless as tools for policy analysis. They are completely ad hoc with no theoretical or empirical foundation.''    The choice of models was never subject to public comment or review. Some have contended that social cost is not a rule. So why worry about procedural niceties like the Administrative Procedure Act.    But APA itself says that rules encompass the ``approval and prescription of valuations, costs and accounting.'' And it is a good idea that the APA does. What is at stake in the carbon context is substantial. The EPA clean power plant alone may place electrical liability at risk, causing blackouts that can cost millions a minute while endangering human health; energy price increases; shut our businesses; deter hiring; cause layoffs; increase the price of essential goods and services; and increase the cost of living for all Americans, including for people living on fixed incomes, like senior citizens and the poor, who are hardest hit by rate hikes.    If OMB does possess the legal authority to use social cost, which is a very open point, under APA it would still have to comply with the full range of procedural requirements, including advanced public notice, a full and robust opportunity for comment, and a description of the legal basis and purpose of the mechanism.    The Interagency Working Group seems to concede this point in its recent brief response to comments, when they indicated they would bound the matter over for a potentially lengthy National Academy of Sciences review based on the need for ``independent expert advice.'' But they would keep the old concept of social cost in place in the meantime.    Ladies and gentlemen, that is not how the administrative process is supposed to work. You do not keep the bad process in place while you are waiting for the better one.    The Administration also reiterated its commitment to calculate global benefits to carbon reductions even when no consideration is given to global dis-benefits associated with perpetuating energy poverty. The Intergovernmental Group says it prefers this because by adopting a global estimate we can signal our leadership, but there is no evidence that our leadership will be copied by other countries who, in fact, are our economic competitors.    Well, thank you for the opportunity to testify. I look forward to working with the committee further as it completes its important oversight tasks.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lummis. Yes, thank you, Mr. Chairman.    I would like to just begin by saying that I believe climate change is real, and I like to watch programs like ``Nova'' which is on Public Television, and I recall a program that talked about the climate changes that were going on 300 years ago.    So let's go back to 1715. Let's think about the fact that the Delaware River was always frozen in the winter. It was always cooler than it is now because when Washington crossed the Delaware, they were dodging ice chunks to get across the river to get to fight the Hessians that were camped on the other side.    There were years in Europe when summer never came, and it is documented. Hence, I really do believe in climate change.    But my question is this for Dr. Dayaratna. Is it reasonable to use 285 years' time line projecting into the future, given what we know and do not know about climate change that was going on in the past? Is that an appropriate time line to guide regulators?</t>
   </si>
   <si>
-    <t>Dayaratna</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dayaratna. Thank you for your question.    I do not think it is an appropriate time line because it is difficult to envision what things would look like that far into the future, just like our Founding Fathers would have no idea what the American economy would look like today. So that is exactly why, when I reran these models in my work, I actually re-estimated them using a shorter time horizon.    And my colleague, Pat Michaels, can also chime in on that.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t xml:space="preserve">    Dr. Dayaratna. No.</t>
   </si>
   <si>
-    <t>Dorsey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dorsey. Yes.</t>
   </si>
   <si>
@@ -250,9 +229,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman.    Thank you to the witnesses for being here, and I will try to speak softly so I put out less carbon dioxide.    I am reading an article from yesterday, and it was in numerous publications, but it is saying that the Arctic ice cap has not, contrary to the predictions of climate alarmists, completely disappeared. In fact, it has been growing rapidly, increasing by almost a third just in 2013 and more since. It would suggest that the sea ice is more resilient perhaps. If you get one more year of cooler temperatures, we would almost wind the clock back a few years on this gradual decline that has been happening over the decades.    And that was what Rachel Tilling was telling the BBC, but the Arctic ice has, indeed, chewed up a bit and it goes on to talk about its thickness and its size. Does anybody have an answer for what is causing the increased ice in the Arctic?</t>
   </si>
   <si>
@@ -301,9 +277,6 @@
     <t xml:space="preserve">    Mr. Gohmert. Well, apparently there were a lot of carbon emissions from those sailing vessels that came across the Atlantic.    I yield back.    The Chairman. Thank you.    I assume I am going down the road with you.    OK. Mr. Cartwright.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman.    I would like to thank the Chairman and the Ranking Member for holding this essential hearing today. I do understand people come at this from different viewpoints, but it is a relief finally to see Congress debating at least a partial solution to address climate change, even if some folks continue somehow to deny its existence.    I thank the Vice Chairman, Mrs. Lummis, for saying out loud that climate change is real. I thank all of our witnesses, except apparently Dr. Dayaratna, for agreeing that there should be a value assigned to the social cost of climate change.    The social cost of carbon is going to be one tool in our arsenal to mitigate the effects of climate change. The idea is pretty simple. We need to account for the negative or positive carbon-related effects that a project or a regulation may have.    Understanding the environmental impact of a project or a regulation is the essence of the idea of NEPA. It allows us better to understand and value a proposed project or a regulation based on its true impact to society, a goal we really all ought to share.    One comment was made earlier in this hearing, that the value that the Administration has selected for the SCC is not based on peer-reviewed information. I would like to correct that. The SCC was estimated using three integrated assessment models called FUND, DICE and PAGE, each of which are widely cited in the peer-reviewed literature and which are used by the Intergovernmental Panel on Climate Change.    There was also a criticism that there was a lack of public input in this process. Look, the first SCC estimates were released in February of 2010. Dozens of opportunities existed for public comment about the SCC directly and about rules that incorporated the SCC. So I did not want to let those falsehoods go unrebutted.    Dr. Dayaratna, you began your testimony with something that has been intoned by many witnesses from The Heritage Foundation, ``The views I express are my own and do not necessarily represent those of The Heritage Foundation.''    Let me ask you a couple of questions, Mr. Dayaratna.</t>
   </si>
   <si>
@@ -382,9 +355,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    I would like to specifically question Dr. Michaels and Dr. Dayaratna. I am a physician by training. What we do is we evaluate things based on evidence, what we call evidence-based science. That is why modern medicine is so far advanced just since the 1940s, and so that is key here.    Now from the data, what I see is that there is a zero percent accuracy in prediction of global warming, which by the way, experts tell me that if you cannot predict it, you do not understand it.    So we have a zero percent prediction of global warming. But we have 100 percent accuracy when it comes to economic damage of global warming policies in terms of shutting down coal-fired plants, the effect on the economy, on jobs, and on electricity rates. So we are not really doing very well in dealing with these policies.    But it is also interesting that whenever we get into these discussions, and I must apologize to you for my colleagues who would rather focus on who you work for rather than what the actual science is. I think that is very telling, rather than really let us talk about the science, and that is what is so important.</t>
   </si>
   <si>
@@ -448,9 +418,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    And thank all of you for coming and talking with us.    Dr. Dayaratna, you cited three criticisms of the social cost of carbon models, and one of them was the use of the discount rate.</t>
   </si>
   <si>
@@ -505,9 +472,6 @@
     <t>412295</t>
   </si>
   <si>
-    <t>Tom McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McClintock. The obvious question that arises as we talk about climate change and global warming is exactly how long has the planet's climate been changing. Any thoughts on that?</t>
   </si>
   <si>
@@ -565,9 +529,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Mr. Chairman, for this amazing hearing and all of you for your testimonies.    I am going to start with the premise that is abundantly clear to me, which is that the earth's climate is changing and human activity is influencing these changes, and I believe we need to stop debating this reality and start working on solutions.    Second, the fact which was very well stated by Mr. Sablan from personal experience, that the changing climate is already negatively impacting our economy, our environment and human health, and these impacts will only grow worse over time.    These changes include sea level rise, destruction of our agricultural systems and food security, increased rates of asthma which we see in southern California, more extreme storms and droughts, among many others. These changes will not impact all people or places in the same ways. So while precisely predicting future outcomes, costs, and benefits associated with climate change is difficult, scientists and economists can provide good estimates of some of these impacts, and these are what are used to calculate social cost of carbon, which is essentially a policymaking tool, not perfect, but useful, and hopefully will improve over time.    Mr. Dorsey, certain assumptions are important for any scientific endeavor, including the development of models such as the one used to calculate the social cost of carbon. In this case the assumptions used for SCC are quite conservative, are they not?    If all the known impacts of climate change were added in, would we not likely see the cost estimate increase?</t>
   </si>
   <si>
@@ -610,18 +571,12 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman.    I agree with Mrs. Lummis. I do not disagree with climate change. I do disagree and I am not a believer in man-made climate change. I think the climate has been changing, as we have heard testimony earlier, since the beginning of time.    I will say this. Trey Gowdy from South Carolina, my colleague, says that there is a stubborn thing about facts, and that is that they are facts. So let's talk about some facts.    Let's talk about that the earth has been a lot warmer than it is today in the history of man. In the period known as the Medieval Period and during the Middle Ages, it goes by both names, but somewhere 900 to 1300, somewhere in that period of time the earth was a lot warmer than it is today.    In fact, the facts show that grapes were at a higher latitude, and that means the earth was warmer during that period, showed abundant crops. In fact, man did so well that we saw this renaissance, for lack of another term, where cathedrals were built and there was art, and man did not have to struggle to survive as much as they do when it is colder.    In fact, the earth was warm. They had abundant food. They were able to do a lot of things. In fact, the facts show that a lot of Greenland was ice free. So the Nords settled on that area and they fished. Those are the facts that can be proven.    I believe that my qualifier when I think about climate change is the human standard of living. Are human beings better off by using fossil fuels or not? And I would say that they are.    Let's talk about some facts. The facts are better than predictions. In the 1970s and into the 1980s, we saw a lot of folks predicting the earth would be cooler. We are entering into a little Ice Age.    In fact, in 1975, Nature magazine said this, ``a recent flurry of papers has provided further evidence for the belief that the earth is cooling. There now seems little doubt that changes over the past few years are more than a minor statistical fluctuation.''    James Hansen at NASA in 1986 predicted that temperature changes of .5 to 1 degree higher in the 1990s and 2 to 4 degrees higher in the first decade of the 21st century. That is a NASA scientist who is pointed to as a climatologist.    Accordingly, actual data shows that he was way, way wrong. So you take that data from Mr. Hansen, and Mr. Bill McKibben, who is a leading climatologist for global warming or what is called now climate change, he predicted then using Mr. Hansen's prediction, and he stated confidently that the world ``will burn up, to put it bluntly.'' That was Mr. Bill McKibben.    We have seen nothing of the fact. All these predictions of global cooling have been wrong. All the predictions of global warming and what we would see in the 21st century were wrong. But I will tell you this. Fossil fuels have dramatically improved the lives of human beings. Man does better when it is warmer.    I go back to the Medieval Period and the Middle Ages. When it was warm, man did well. When it got colder, which it did after what is known as the Medieval warming period, it got colder and we had Bubonic Plague. Man does not do well when it is cooler. They do better when it is warmer.    Fossil fuel has increased our abilities. In fact, because of fossil fuels, we are now seeing China and India use more fossil fuels and we are seeing the standard of living go up. We are seeing personal percentage of GDP go up. We are seeing life expectancy in China and India go up. People live longer. They are living better lives because of fossil fuels. So I think that ought to be the standard.    So in the 1970s, earth was going to be cooler. In the 1980s and 1990s we saw it was going to be warmer. Now it is just called climate change. I know this. I had a premature son. He was able to go into an incubator. He was kept alive based on that.    There are parts of the world that do not have access to ready, reliable, affordable fossil fuels to generate electricity. Because of that failure to have electricity, they cannot have incubators or generators to do C-sections. Children die. The infant mortality rate in areas that do not have access to cheap, reliable, predictable electricity provided by fossil fuels have very low life expectancies. Fossil fuels work.    That is the social cost and the moral cost of not having cheap, reliable fossil fuels.    With that I yield back.    The Chairman. Thank you.    Mrs. Torres.</t>
   </si>
   <si>
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Dr. Dorsey, is the social cost of carbon a brand new concept?</t>
   </si>
   <si>
@@ -685,9 +640,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gosar. Yes, Mr. Chairman.    Before I go into my testimony, I would like to have the Iran deal placed into the record in regards to trying to take away coal from the United States but it is good enough to sell to Iran for their uses.    The Chairman. Without objection.</t>
   </si>
   <si>
@@ -703,9 +655,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    In the narrow topic of today's hearing of SCC, we could and have talked about many other peripheral issues related to the social cost of carbon, such as the science, the models behind the calculations, the impact of man on greenhouse gas emissions and things like 300-year economic investment horizons.    In thinking about this in this narrow scope, I thought of a quote by a guy who is recognized as a pretty smart guy in today's terms, Steve Jobs. He said that you cannot connect the dots looking forward. You can only connect them looking backwards. So you have to trust that the dots will somehow connect in your future. You have to trust in something, your gut, destiny, life, karma, whatever. This approach has never let me down and has made all of the difference in my life.    So if we think about the social cost of carbon, we know that manmade carbon emissions can be traced back to the Industrial Revolution, and as carbon emissions increased, real wages increased, meaning that they rose faster than inflation. Agricultural production increased, meaning food supply and quality increased. Populations increased. Life expectancy increased, and quality of life improved. Technology and health care improved.    At the same time, poverty rates decreased. Mortality rates decreased, and social barriers were removed. So until the EPA figures out how to permit and regulate acts of God, then there is not really anything we can do about autogenic greenhouse gases.    And in the narrow window of the social cost of manmade carbon, please help me look back and in the words of Mr. Jobs connect the dots. So I've got just a series of questions here. The first one is: can the increase in manmade carbon be correlated with the advent of the Industrial Revolution and advancements since then? Just go down the panel.</t>
   </si>
   <si>
@@ -754,9 +703,6 @@
     <t>412660</t>
   </si>
   <si>
-    <t>Dan Newhouse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman.    I appreciate your indulgence and allowing us to expend a little bit of CO&lt;INF&gt;2&lt;/INF&gt;.    I appreciate the panel being here, and the line of questioning on both sides has been very interesting. You know, I am a farmer by trade and always felt that we considered ourselves, the agriculture industry, being the original conservationists and we understand fully the need to wisely utilize the resources that are available to us and protect them into the future.    But certainly to do that the best, most efficient way, you have to have information, and good information, and so that is why the subject of today's hearing is so interesting.    Just a couple of questions in the short time I have. First of all, for Mr. Segal, in your testimony you have given several examples of how the SCC can be used to skew cost-benefit analyses of Federal regulations even though the courts have ruled that a Federal agency must provide a complete analytical defense of its model and respond to each objection with a reasoned presentation.    You also state that one cannot consider the development and use of SCC as anything other than a substantive rule.    So then does the social cost of carbon on its own constitute a rule under the Administrative Procedure Act?    And if so, could not all Federal regulations utilizing SCC be open to judicial review and then, in turn, be overturned by courts?</t>
   </si>
   <si>
@@ -785,9 +731,6 @@
   </si>
   <si>
     <t>412623</t>
-  </si>
-  <si>
-    <t>Jody B. Hice</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman.    Very interesting. I appreciate each of you being here today. The questioning has been very, very helpful in your answers.    Dr. Michaels, let me just begin real quickly with you. I am assuming it is correct for us to say that carbon dioxide can have positive impact on vegetation and crops.</t>
@@ -1315,11 +1258,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1339,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1365,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1391,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1417,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1443,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1469,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1495,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1521,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1547,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1573,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1601,11 +1522,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1625,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1651,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1677,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1703,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1731,11 +1642,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1755,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1783,11 +1690,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1807,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1835,11 +1738,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1859,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1887,11 +1786,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1911,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1939,11 +1834,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1963,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1991,11 +1882,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2015,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2043,11 +1930,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2067,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2095,11 +1978,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2119,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2147,11 +2026,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2171,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2197,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2225,11 +2098,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2249,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2277,11 +2146,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2301,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2329,11 +2194,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2353,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2381,11 +2242,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2405,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2433,11 +2290,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2457,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2485,11 +2338,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2509,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2537,11 +2386,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2561,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2589,11 +2434,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2613,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2641,11 +2482,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2665,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2693,11 +2530,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2717,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2743,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2769,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G58" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2795,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2821,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2847,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2873,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2899,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2925,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>77</v>
-      </c>
-      <c r="G64" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2951,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2977,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>78</v>
-      </c>
-      <c r="H66" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3003,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3029,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3055,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3081,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3107,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3133,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3159,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3185,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s">
-        <v>78</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3211,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3237,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3263,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3289,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3315,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3341,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3367,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3393,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3419,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3445,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3471,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3497,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3523,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3549,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3575,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3601,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3627,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3653,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3679,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3705,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3731,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3757,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3783,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3809,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3835,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3861,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3887,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>95</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3913,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3939,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3965,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
-      </c>
-      <c r="G104" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3991,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4017,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
-      </c>
-      <c r="G106" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4043,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4069,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
-      </c>
-      <c r="G108" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4095,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4121,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
+        <v>112</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>121</v>
-      </c>
-      <c r="G110" t="s">
-        <v>122</v>
-      </c>
-      <c r="H110" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4147,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4173,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
-      </c>
-      <c r="G112" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4199,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4225,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>121</v>
-      </c>
-      <c r="G114" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4251,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4277,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4303,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4329,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4355,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4381,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>121</v>
-      </c>
-      <c r="G120" t="s">
-        <v>122</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4407,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4433,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>143</v>
-      </c>
-      <c r="G122" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4459,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4485,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>143</v>
-      </c>
-      <c r="G124" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4511,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4537,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>143</v>
-      </c>
-      <c r="G126" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4563,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4589,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>143</v>
-      </c>
-      <c r="G128" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4615,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4641,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>143</v>
-      </c>
-      <c r="G130" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4667,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4693,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>143</v>
-      </c>
-      <c r="G132" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4719,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4745,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>143</v>
-      </c>
-      <c r="G134" t="s">
+        <v>133</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
         <v>144</v>
-      </c>
-      <c r="H134" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4771,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4797,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>143</v>
-      </c>
-      <c r="G136" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4823,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4849,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>143</v>
-      </c>
-      <c r="G138" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4875,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4901,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>143</v>
-      </c>
-      <c r="G140" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4927,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
-      </c>
-      <c r="G141" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4953,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4979,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
-      </c>
-      <c r="G143" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5005,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5031,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>162</v>
-      </c>
-      <c r="G145" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5057,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5083,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>162</v>
-      </c>
-      <c r="G147" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5109,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5135,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>162</v>
-      </c>
-      <c r="G149" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5161,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5187,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
+        <v>151</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
         <v>162</v>
-      </c>
-      <c r="G151" t="s">
-        <v>163</v>
-      </c>
-      <c r="H151" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5213,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5239,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
-      </c>
-      <c r="G153" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5265,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5291,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5317,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>162</v>
-      </c>
-      <c r="G156" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5343,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5369,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>162</v>
-      </c>
-      <c r="G158" t="s">
-        <v>163</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5395,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>182</v>
-      </c>
-      <c r="G159" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5421,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5447,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
-      </c>
-      <c r="G161" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5473,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5499,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
-      </c>
-      <c r="G163" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5525,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5551,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
-      </c>
-      <c r="G165" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5577,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5603,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5629,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5655,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" t="s">
-        <v>183</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5681,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5707,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>182</v>
-      </c>
-      <c r="G171" t="s">
+        <v>170</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
         <v>183</v>
-      </c>
-      <c r="H171" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5733,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>197</v>
-      </c>
-      <c r="G172" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5759,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>200</v>
-      </c>
-      <c r="G173" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5785,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5811,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>200</v>
-      </c>
-      <c r="G175" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5837,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5863,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>200</v>
-      </c>
-      <c r="G177" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5889,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5915,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
-      </c>
-      <c r="G179" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5941,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5967,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>200</v>
-      </c>
-      <c r="G181" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5993,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6019,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>200</v>
-      </c>
-      <c r="G183" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6045,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6071,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>200</v>
-      </c>
-      <c r="G185" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6097,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6123,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
+        <v>186</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
         <v>200</v>
-      </c>
-      <c r="G187" t="s">
-        <v>201</v>
-      </c>
-      <c r="H187" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6149,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6175,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>200</v>
-      </c>
-      <c r="G189" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6201,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6227,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>200</v>
-      </c>
-      <c r="G191" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6253,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6279,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>200</v>
-      </c>
-      <c r="G193" t="s">
-        <v>201</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6305,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>222</v>
-      </c>
-      <c r="G194" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6331,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>222</v>
-      </c>
-      <c r="G195" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6357,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6383,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>222</v>
-      </c>
-      <c r="G197" t="s">
-        <v>223</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6409,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>228</v>
-      </c>
-      <c r="G198" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6435,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>20</v>
-      </c>
-      <c r="G199" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6461,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6487,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6513,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6539,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>228</v>
-      </c>
-      <c r="G203" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6565,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6591,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>20</v>
-      </c>
-      <c r="G205" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6617,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6643,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
-      </c>
-      <c r="G207" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6669,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>228</v>
-      </c>
-      <c r="G208" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6695,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>20</v>
-      </c>
-      <c r="G209" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6721,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>20</v>
-      </c>
-      <c r="G210" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6747,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6773,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>228</v>
-      </c>
-      <c r="G212" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6799,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
-      </c>
-      <c r="G213" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6825,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>228</v>
-      </c>
-      <c r="G214" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6851,13 +6368,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>20</v>
-      </c>
-      <c r="G215" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6877,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>228</v>
-      </c>
-      <c r="G216" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6903,13 +6416,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>20</v>
-      </c>
-      <c r="G217" t="s">
-        <v>35</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6929,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>228</v>
-      </c>
-      <c r="G218" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6955,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>20</v>
-      </c>
-      <c r="G219" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6981,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>228</v>
-      </c>
-      <c r="G220" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7007,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>245</v>
-      </c>
-      <c r="G221" t="s">
-        <v>246</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7033,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7059,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>245</v>
-      </c>
-      <c r="G223" t="s">
-        <v>246</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7085,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>20</v>
-      </c>
-      <c r="G224" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7111,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>245</v>
-      </c>
-      <c r="G225" t="s">
-        <v>246</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7137,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7163,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>245</v>
-      </c>
-      <c r="G227" t="s">
-        <v>246</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7189,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7215,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>245</v>
-      </c>
-      <c r="G229" t="s">
-        <v>246</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7241,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>256</v>
-      </c>
-      <c r="G230" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7267,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7293,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>256</v>
-      </c>
-      <c r="G232" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7319,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>20</v>
-      </c>
-      <c r="G233" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7345,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>256</v>
-      </c>
-      <c r="G234" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7371,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
-      </c>
-      <c r="G235" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7397,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>256</v>
-      </c>
-      <c r="G236" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7423,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>20</v>
-      </c>
-      <c r="G237" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7449,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>256</v>
-      </c>
-      <c r="G238" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7475,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>20</v>
-      </c>
-      <c r="G239" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7501,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>20</v>
-      </c>
-      <c r="G240" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7527,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
-      </c>
-      <c r="G241" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7553,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>256</v>
-      </c>
-      <c r="G242" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7579,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>20</v>
-      </c>
-      <c r="G243" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7605,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>256</v>
-      </c>
-      <c r="G244" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7631,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>20</v>
-      </c>
-      <c r="G245" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7657,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>256</v>
-      </c>
-      <c r="G246" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7683,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>20</v>
-      </c>
-      <c r="G247" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7709,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>256</v>
-      </c>
-      <c r="G248" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7735,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>20</v>
-      </c>
-      <c r="G249" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7761,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>256</v>
-      </c>
-      <c r="G250" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7787,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>20</v>
-      </c>
-      <c r="G251" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7813,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>256</v>
-      </c>
-      <c r="G252" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7839,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>20</v>
-      </c>
-      <c r="G253" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7865,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>256</v>
-      </c>
-      <c r="G254" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7891,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>20</v>
-      </c>
-      <c r="G255" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7917,13 +7352,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>256</v>
-      </c>
-      <c r="G256" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7943,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>20</v>
-      </c>
-      <c r="G257" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7969,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>256</v>
-      </c>
-      <c r="G258" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7995,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>20</v>
-      </c>
-      <c r="G259" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8021,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>256</v>
-      </c>
-      <c r="G260" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8047,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>20</v>
-      </c>
-      <c r="G261" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8073,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>256</v>
-      </c>
-      <c r="G262" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8099,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>20</v>
-      </c>
-      <c r="G263" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8125,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>256</v>
-      </c>
-      <c r="G264" t="s">
-        <v>257</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8153,11 +7570,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8177,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>20</v>
-      </c>
-      <c r="G266" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8203,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>20</v>
-      </c>
-      <c r="G267" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8229,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>20</v>
-      </c>
-      <c r="G268" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8255,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>20</v>
-      </c>
-      <c r="G269" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8281,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
-      </c>
-      <c r="G270" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8307,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>20</v>
-      </c>
-      <c r="G271" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8333,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>20</v>
-      </c>
-      <c r="G272" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8359,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>20</v>
-      </c>
-      <c r="G273" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8385,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>20</v>
-      </c>
-      <c r="G274" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8411,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>20</v>
-      </c>
-      <c r="G275" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8437,13 +7832,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>20</v>
-      </c>
-      <c r="G276" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
